--- a/server/sample.xlsx
+++ b/server/sample.xlsx
@@ -76,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,16 +420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -436,11 +444,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -461,6 +469,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
